--- a/data/stall_want_to_remove.xlsx
+++ b/data/stall_want_to_remove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\EIE3280\canteen_eva\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD120FAB-44C7-4560-98ED-FC12018E40B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D7B5EE-8751-42D2-9FC7-B184D21E2277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25065" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>canteen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +218,10 @@
   </si>
   <si>
     <t>dilike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -568,7 +583,7 @@
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,12 +604,8 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2">
-        <f xml:space="preserve"> SUM(C2:C18)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -616,7 +627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -627,7 +638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -638,7 +649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -649,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -660,7 +671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -671,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -682,7 +693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -693,7 +704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -704,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -715,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -725,8 +736,11 @@
       <c r="C14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -737,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -759,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -770,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -780,12 +794,8 @@
       <c r="C19">
         <v>24</v>
       </c>
-      <c r="D19">
-        <f>SUM(C19:C27)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -796,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -807,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -818,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -829,7 +839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -840,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -851,7 +861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -862,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -873,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -883,12 +893,8 @@
       <c r="C28">
         <v>26</v>
       </c>
-      <c r="D28">
-        <f>SUM(C28:C31)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -899,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -910,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -921,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -931,12 +937,8 @@
       <c r="C32">
         <v>21</v>
       </c>
-      <c r="D32">
-        <f>SUM(C32:C37)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -947,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -958,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -969,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -980,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -991,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1001,12 +1003,8 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38">
-        <f>SUM(C38:C46)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>

--- a/data/stall_want_to_remove.xlsx
+++ b/data/stall_want_to_remove.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\EIE3280\canteen_eva\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HW\Desktop\cuhksz\eie3280\canteen_eva\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D7B5EE-8751-42D2-9FC7-B184D21E2277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DC7F6-2C71-46B2-A3D4-0F53FEB124D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>canteen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
   </si>
   <si>
     <t>dilike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,18 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -602,10 +598,10 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -613,10 +609,10 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5.1587301587301582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -624,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9.1269841269841265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -635,10 +631,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12.301587301587301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -646,10 +642,10 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16.269841269841269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -657,10 +653,10 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -668,10 +664,10 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -679,10 +675,10 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5.9523809523809517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -690,10 +686,10 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -701,10 +697,10 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>6.3492063492063489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -712,10 +708,10 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -723,10 +719,10 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -734,13 +730,10 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -751,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -759,10 +752,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -770,21 +763,21 @@
         <v>39</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -792,10 +785,10 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -803,10 +796,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -814,10 +807,10 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>8.7999999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -825,32 +818,32 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>8.7999999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>8.7999999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -858,10 +851,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -869,10 +862,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -880,10 +873,10 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -891,10 +884,10 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>55.319148936170215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -902,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>12.76595744680851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -913,10 +906,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.3829787234042552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -924,10 +917,10 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>25.531914893617021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -935,10 +928,10 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>39.622641509433961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -946,10 +939,10 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.6603773584905666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -957,10 +950,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>22.641509433962266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -968,10 +961,10 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.6603773584905666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -979,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>13.20754716981132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -990,10 +983,10 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>13.20754716981132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1001,10 +994,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1012,10 +1005,10 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1023,10 +1016,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>11.904761904761903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1034,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26.190476190476193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1045,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1056,10 +1049,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1067,10 +1060,10 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1078,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/data/stall_want_to_remove.xlsx
+++ b/data/stall_want_to_remove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HW\Desktop\cuhksz\eie3280\canteen_eva\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DC7F6-2C71-46B2-A3D4-0F53FEB124D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F36A13-EDCF-4130-B94D-CAED57032B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>4.7619047619047619</v>
+        <v>3.761755485893417</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <v>5.1587301587301582</v>
+        <v>4.0752351097178678</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.1269841269841265</v>
+        <v>9.7178683385579934</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>12.301587301587301</v>
+        <v>7.2100313479623823</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>16.269841269841269</v>
+        <v>12.852664576802509</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>5.5555555555555554</v>
+        <v>4.3887147335423196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>8.3333333333333321</v>
+        <v>6.5830721003134789</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>5.9523809523809517</v>
+        <v>4.7021943573667713</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>9.5238095238095237</v>
+        <v>7.523510971786834</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>6.3492063492063489</v>
+        <v>5.0156739811912221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>5.5555555555555554</v>
+        <v>4.3887147335423196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>2.3809523809523809</v>
+        <v>1.8808777429467085</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>2.7777777777777777</v>
+        <v>2.1943573667711598</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>2.3809523809523809</v>
+        <v>4.0752351097178678</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="3">
-        <v>2.3809523809523809</v>
+        <v>4.0752351097178678</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>1.1904761904761905</v>
+        <v>4.3887147335423196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>19.2</v>
+        <v>14.814814814814813</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>10.4</v>
+        <v>8.0246913580246915</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>8.7999999999999989</v>
+        <v>6.7901234567901234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>6.1728395061728394</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>8.7999999999999989</v>
+        <v>6.7901234567901234</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>8.7999999999999989</v>
+        <v>6.7901234567901234</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>13.600000000000001</v>
+        <v>10.493827160493826</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>16.8</v>
+        <v>12.962962962962962</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>5.6000000000000005</v>
+        <v>4.3209876543209873</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>55.319148936170215</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>12.76595744680851</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>6.3829787234042552</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>25.531914893617021</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>39.622641509433961</v>
+        <v>24.705882352941178</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>5.6603773584905666</v>
+        <v>3.5294117647058822</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>22.641509433962266</v>
+        <v>14.117647058823529</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>5.6603773584905666</v>
+        <v>3.5294117647058822</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>13.20754716981132</v>
+        <v>8.235294117647058</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>13.20754716981132</v>
+        <v>8.235294117647058</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>7.1428571428571423</v>
+        <v>4.3478260869565215</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4.7619047619047619</v>
+        <v>6.5217391304347823</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1016,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>11.904761904761903</v>
+        <v>10.869565217391305</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>26.190476190476193</v>
+        <v>23.913043478260871</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>2.3809523809523809</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>9.5238095238095237</v>
+        <v>8.695652173913043</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>4.7619047619047619</v>
+        <v>4.3478260869565215</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>16.666666666666664</v>
+        <v>15.217391304347828</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>16.666666666666664</v>
+        <v>15.217391304347828</v>
       </c>
     </row>
   </sheetData>
